--- a/DB/db.xlsx
+++ b/DB/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwjd\Desktop\gitProject\2022-01-OSSP1-KBJ-7\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D7118A-3D2A-42B5-B40B-F3C45510297A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A5BA8B-B9AF-4E31-A453-0E68B4376F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1410" windowWidth="25410" windowHeight="12960" activeTab="3" xr2:uid="{E1D37B78-B2FB-4350-AEC4-9F95FA9DB640}"/>
+    <workbookView xWindow="120" yWindow="5520" windowWidth="25410" windowHeight="10590" activeTab="3" xr2:uid="{E1D37B78-B2FB-4350-AEC4-9F95FA9DB640}"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="184">
   <si>
     <t>food</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,6 +679,9 @@
   <si>
     <t>곤약들깨볶음_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매실 탄산수</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,18 +715,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,11 +761,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D52E91-0AD4-4397-A57B-F4B603486D18}">
   <dimension ref="B3:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1090,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2121,719 +2109,825 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19B68F2-D106-4D2B-8A5A-67732CA11680}">
-  <dimension ref="B3:G37"/>
+  <dimension ref="B3:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2848,13 +2942,13 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2952,43 +3046,55 @@
   <dimension ref="B3:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>182</v>
       </c>
     </row>
